--- a/App.Web/App_Data/SeguimientoGP.xlsx
+++ b/App.Web/App_Data/SeguimientoGP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GestionProcesos\Reportes\Cometidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GestionProcesos\SourceNew\App.Web\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
     <t>Subscecretaria</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Funcionario</t>
   </si>
   <si>
@@ -50,16 +47,19 @@
     <t>Fecha Solicitud</t>
   </si>
   <si>
-    <t>Fecha Ida</t>
-  </si>
-  <si>
-    <t>Fecha Vuelta</t>
-  </si>
-  <si>
-    <t>Funcionario tarea asignada</t>
-  </si>
-  <si>
     <t>Fecha Asignacion</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Fecha Inicio</t>
+  </si>
+  <si>
+    <t>Fecha Hasta</t>
   </si>
 </sst>
 </file>
@@ -379,20 +379,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,31 +402,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
